--- a/Pymoli-Top 5 Spenders.xlsx
+++ b/Pymoli-Top 5 Spenders.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharathy_Nat\repo\UTAAU201710DATA1-Class-Repository-DATA\1-Class-Content\04-Pandas\Homework\Instructions\HeroesOfPymoli\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bharathy_Nat\repo\DataAnalytics-UT\pandas-Pymoli\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
